--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2465428.403159039</v>
+        <v>2463540.821642636</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549107.5859345205</v>
+        <v>289340.8882292006</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>123.4580555599989</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>19.33002828155853</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.52687838733151</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1609600883624</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>265.3029854470112</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.9142329251982</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>8.787420751036535</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>30.9590070198043</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.53815412835747</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>33.35146980185922</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>108.6200406500439</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896923</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.00734609151954</v>
       </c>
       <c r="X16" t="n">
-        <v>23.00523344579904</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>73.50096938092049</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>166.1848299532894</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404419</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>185.8949910735412</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404432</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.5947476878509</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>99.03327386560974</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5862113809935252</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692937</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3272,19 +3272,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463136</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>902.4179758042685</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>902.4179758042685</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>902.4179758042685</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>902.4179758042685</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>491.4320710146609</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>73.46826291284782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>73.46826291284782</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785274</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661917</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837986</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2013.317548404538</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>1644.355031464126</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>1286.089332857375</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>900.3010802591311</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>489.3151754695236</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3917714081145</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1901.622914804502</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>895.9122675320539</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>510.1240149338096</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>503.1785141846062</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>85.21470608279304</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2670.342874726952</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.342874726952</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.342874726952</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.342874726952</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5063,7 +5063,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>570.9077560114449</v>
       </c>
       <c r="L12" t="n">
-        <v>646.7193686662753</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M12" t="n">
-        <v>967.0546881959771</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.466266460128</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="V13" t="n">
-        <v>789.0753054710162</v>
+        <v>420.3226148324579</v>
       </c>
       <c r="W13" t="n">
-        <v>499.6581354340556</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340556</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,10 +5291,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5309,13 +5309,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.0729548808321</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028587</v>
@@ -5437,7 +5437,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655734</v>
+        <v>486.9458535317232</v>
       </c>
       <c r="X16" t="n">
-        <v>931.8655340243622</v>
+        <v>486.9458535317232</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.0729548808321</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>758.3231350731121</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527475</v>
+        <v>1078.658454602814</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.597763704656</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1089.812348494162</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>800.6837097077203</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V19" t="n">
-        <v>545.9992215018333</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>674.718571787825</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>446.7290208898077</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527474</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N21" t="n">
-        <v>1669.996816116898</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O21" t="n">
-        <v>2339.460577419557</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583033</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531122</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387937</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018332</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>481.4617027208815</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>260.6691235773513</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527474</v>
+        <v>993.1218759632263</v>
       </c>
       <c r="N27" t="n">
-        <v>1669.996816116898</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O27" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765194</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924327</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>415.8299478944153</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,13 +6452,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6470,22 +6470,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>990.9427979105847</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1335.463453548203</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2004.927214850862</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.22783658661</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.9720111083041</v>
+        <v>439.5324299542174</v>
       </c>
       <c r="C31" t="n">
-        <v>490.796693461768</v>
+        <v>339.498819988955</v>
       </c>
       <c r="D31" t="n">
-        <v>396.4409193308031</v>
+        <v>245.14304585799</v>
       </c>
       <c r="E31" t="n">
-        <v>304.2886910297803</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297803</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818937</v>
+        <v>902.6804289818922</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652471</v>
+        <v>730.4517433652456</v>
       </c>
       <c r="Y31" t="n">
-        <v>729.8596106571729</v>
+        <v>565.4200295030863</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,13 +6710,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1312.518938568949</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1981.982699871608</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2502.283321607356</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110834</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229681</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506735</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045216</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010326</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,52 +6932,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1256.949335650623</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1926.413096953282</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>865.5852378527474</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N39" t="n">
-        <v>1669.996816116898</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O39" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,34 +7427,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2522.104055032908</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,7 +7549,7 @@
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
@@ -7558,7 +7558,7 @@
         <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.529509210313</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,16 +9015,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>294.526494115776</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>225.219846491826</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849284</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849285</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>365.0697788354061</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>146.4805103800781</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>143.517602673784</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>242.5156522450715</v>
       </c>
       <c r="X16" t="n">
-        <v>202.7044219432381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>124.4198406026828</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>52.39982339880541</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338608</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>39.81466431549592</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>18.01446838604244</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338483</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>82.98990566424391</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>13.01029060446105</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.7951853425442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-6.983302952577993e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854326.4884250675</v>
+        <v>854326.4884250674</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327926</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.6836327923</v>
-      </c>
       <c r="J2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833786</v>
+        <v>569550.9922833784</v>
       </c>
       <c r="L2" t="n">
         <v>574729.2389049976</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="N2" t="n">
         <v>574729.2389049978</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="P2" t="n">
         <v>574729.2389049977</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758299</v>
+        <v>787.7936905758083</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758216</v>
+        <v>787.7936905758307</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758359</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758784</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.5809318964</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535747</v>
+        <v>-237156.8575535742</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609704</v>
+        <v>352811.0216609703</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609702</v>
+        <v>352811.0216609701</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339628</v>
+        <v>-70591.93160936869</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639935</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.1048675279</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639934997</v>
+        <v>454568.1048675278</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639934998</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009071</v>
+        <v>278144.8856749348</v>
       </c>
       <c r="K6" t="n">
-        <v>409807.7622455378</v>
+        <v>409789.2685076033</v>
       </c>
       <c r="L6" t="n">
-        <v>443464.645352209</v>
+        <v>443464.6453522089</v>
       </c>
       <c r="M6" t="n">
-        <v>319006.5369192394</v>
+        <v>319006.5369192397</v>
       </c>
       <c r="N6" t="n">
-        <v>453807.5521530761</v>
+        <v>453807.552153076</v>
       </c>
       <c r="O6" t="n">
-        <v>453807.5521530769</v>
+        <v>453807.5521530772</v>
       </c>
       <c r="P6" t="n">
-        <v>409644.9468502304</v>
+        <v>409644.9468502302</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>259.2757861034817</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>132.6012879633027</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>120.4387434050067</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822863</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>58.61978731734592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>105.8168677532708</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>101.6953328227615</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855544</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>292.9637657445529</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.94024844645425</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.361220976441228e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.537419847786849e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.381737484234446e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.371257144362727e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29272,22 +29272,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,25 +31355,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638408</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>183.8504064050093</v>
       </c>
       <c r="L12" t="n">
-        <v>196.1430416967705</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,28 +32078,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>20.45724131309544</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32558,28 +32558,28 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>282.467126966742</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,19 +32789,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32810,13 +32810,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33026,34 +33026,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>166.3426223522486</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33269,10 +33269,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33281,16 +33281,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>18.50615977666591</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33500,7 +33500,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -33509,7 +33509,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33518,16 +33518,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>41.68243753348777</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33746,13 +33746,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>210.8863650469609</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33980,28 +33980,28 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>91.757008329222</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>21.66149467939471</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>372.2688744803118</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918224</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>310.4742044432289</v>
       </c>
       <c r="L12" t="n">
-        <v>428.4290072203555</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>163.1847820324427</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>252.7432068366804</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187473</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>606.0381567947236</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>83.08581256980774</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36458,7 +36458,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>489.9136521802301</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.60167342649349</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>111.7779511833154</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>395.3747262725678</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>222.4735343909616</v>
       </c>
       <c r="P39" t="n">
-        <v>276.2453695548289</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.75700832922229</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>604.5548400038967</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
